--- a/data/partreq_input.xlsx
+++ b/data/partreq_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\part_requirement_administration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E129A80E-C3BE-48F8-973A-7112B6AAF8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E02587F-6CD6-4052-98F6-D141FD1420F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,101 +27,109 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
-    <t>PARTREQ-TITLE[38][m]</t>
-  </si>
-  <si>
-    <t>PARTREQ-TYPE[2][m]</t>
-  </si>
-  <si>
-    <t>DESCRIPTION[36]</t>
+    <t>SER-TYPE[2][m]</t>
+  </si>
+  <si>
+    <t>RANGE-TYPE[1][m]</t>
+  </si>
+  <si>
+    <t>INCL-EXCL[1][m]</t>
+  </si>
+  <si>
+    <t>DIM-TYPE[2]</t>
+  </si>
+  <si>
+    <t>DIM[2]</t>
+  </si>
+  <si>
+    <t>UNIT[2]</t>
+  </si>
+  <si>
+    <t>ACCURACY[1]</t>
+  </si>
+  <si>
+    <t>AMOUNT[10]</t>
+  </si>
+  <si>
+    <t>UNLIMITED[1][m]</t>
+  </si>
+  <si>
+    <t>256551-01-1::A12SA</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>256551-01-1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A12SA</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>MEGAPHONE BATTERIES</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>DESCRIPTION[70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPARTREQ.PARTREQ-TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPARTREQ.PARTREQ-TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPARTREQ.DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPARTREQ.REMOVAL-REQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPARTREQ.SHELF-PERF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTNO[32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EFF-TITLE[70][m]</t>
-  </si>
-  <si>
-    <t>PARTNO[32]</t>
-  </si>
-  <si>
-    <t>SER-TYPE[2][m]</t>
-  </si>
-  <si>
-    <t>REMOVAL-REQ[1]</t>
-  </si>
-  <si>
-    <t>SHELF-PERF[1]</t>
-  </si>
-  <si>
-    <t>HARD-SOFT[4]</t>
-  </si>
-  <si>
-    <t>RANGE-TYPE[1][m]</t>
-  </si>
-  <si>
-    <t>INCL-EXCL[1][m]</t>
-  </si>
-  <si>
-    <t>DIM-TYPE[2]</t>
-  </si>
-  <si>
-    <t>DIM[2]</t>
-  </si>
-  <si>
-    <t>UNIT[2]</t>
-  </si>
-  <si>
-    <t>ACCURACY[1]</t>
-  </si>
-  <si>
-    <t>AMOUNT[10]</t>
-  </si>
-  <si>
-    <t>UNLIMITED[1][m]</t>
-  </si>
-  <si>
-    <t>256551-01-1::A12SA</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>256551-01-1</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>A12SA</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>MEGAPHONE BATTERIES</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>DESCRIPTIO[70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPARTREQ.HARD-SOFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,23 +508,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
@@ -528,114 +535,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q2">
         <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
